--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3638640.619264887</v>
+        <v>3634336.302216645</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.3828147651811</v>
+        <v>7.454266909639444</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>130.2818665296734</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.3828147651811</v>
+        <v>12.83532033605545</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739394</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.3828147651815</v>
       </c>
     </row>
     <row r="3">
@@ -746,10 +746,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807538</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642697</v>
+        <v>11.71390747393977</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>111.2801482520782</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>13.76134652291352</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180232</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825648</v>
+        <v>15.10853304825643</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.3828147651811</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>52.59402856838835</v>
       </c>
     </row>
     <row r="5">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>227.9187527607133</v>
+        <v>79.51149230610422</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>40.94250758398375</v>
+        <v>125.2783963262414</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>192.8367808852978</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>178.3734004266727</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.371884684587</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>327.5849040594781</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X10" t="n">
-        <v>223.6070465125835</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>26.1362719570587</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>51.36569740310337</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977307</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1897,10 +1897,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>106.997776813539</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>80.5697888787481</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>112.7606860319981</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>149.1095818503213</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>51.89407438975442</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>10.63412424768211</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>23.10998325717174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.91369288257656</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>25.52471385612597</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>418.7117173982393</v>
+        <v>157.497044223342</v>
       </c>
       <c r="C2" t="n">
-        <v>418.7117173982393</v>
+        <v>157.497044223342</v>
       </c>
       <c r="D2" t="n">
-        <v>418.7117173982393</v>
+        <v>157.497044223342</v>
       </c>
       <c r="E2" t="n">
-        <v>418.7117173982393</v>
+        <v>157.497044223342</v>
       </c>
       <c r="F2" t="n">
-        <v>287.1138724187712</v>
+        <v>150.5515434741386</v>
       </c>
       <c r="G2" t="n">
-        <v>21.07062518121449</v>
+        <v>137.5865734377189</v>
       </c>
       <c r="H2" t="n">
-        <v>21.07062518121449</v>
+        <v>137.5865734377189</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121449</v>
+        <v>21.07062518121452</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467357</v>
+        <v>49.15993901467368</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935567</v>
+        <v>141.997057293557</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959982</v>
+        <v>294.0714735959987</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795993</v>
+        <v>494.9530007796</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670342</v>
+        <v>703.6988094670356</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288967</v>
+        <v>887.4762960288986</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.82512810807</v>
+        <v>1009.825128108072</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060725</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060725</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193418</v>
+        <v>899.1940867193435</v>
       </c>
       <c r="T2" t="n">
-        <v>684.754964635796</v>
+        <v>684.7549646357977</v>
       </c>
       <c r="U2" t="n">
-        <v>684.754964635796</v>
+        <v>431.0698539958885</v>
       </c>
       <c r="V2" t="n">
-        <v>684.754964635796</v>
+        <v>431.0698539958885</v>
       </c>
       <c r="W2" t="n">
-        <v>684.754964635796</v>
+        <v>431.0698539958885</v>
       </c>
       <c r="X2" t="n">
-        <v>684.754964635796</v>
+        <v>431.0698539958885</v>
       </c>
       <c r="Y2" t="n">
-        <v>684.754964635796</v>
+        <v>165.0266067583314</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>694.6168543022394</v>
+        <v>344.4580641235928</v>
       </c>
       <c r="C3" t="n">
-        <v>520.1638250211124</v>
+        <v>170.0050348424658</v>
       </c>
       <c r="D3" t="n">
-        <v>371.2294153598612</v>
+        <v>21.07062518121452</v>
       </c>
       <c r="E3" t="n">
-        <v>211.9919603544056</v>
+        <v>21.07062518121452</v>
       </c>
       <c r="F3" t="n">
-        <v>65.45740238129063</v>
+        <v>21.07062518121452</v>
       </c>
       <c r="G3" t="n">
-        <v>65.45740238129063</v>
+        <v>21.07062518121452</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129063</v>
+        <v>21.07062518121452</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121449</v>
+        <v>21.07062518121452</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121449</v>
+        <v>21.07062518121452</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371072</v>
+        <v>95.65665001371089</v>
       </c>
       <c r="L3" t="n">
-        <v>338.1990901420725</v>
+        <v>242.2693060433181</v>
       </c>
       <c r="M3" t="n">
-        <v>528.646012628659</v>
+        <v>503.0182926608478</v>
       </c>
       <c r="N3" t="n">
-        <v>738.5421433767086</v>
+        <v>712.9144234088976</v>
       </c>
       <c r="O3" t="n">
-        <v>908.336301274855</v>
+        <v>882.7085813070441</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062224</v>
+        <v>999.6502960944127</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060725</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155243</v>
+        <v>1041.69902928907</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.156931155243</v>
+        <v>1041.69902928907</v>
       </c>
       <c r="T3" t="n">
-        <v>922.7527410016285</v>
+        <v>1041.69902928907</v>
       </c>
       <c r="U3" t="n">
-        <v>694.6168543022394</v>
+        <v>1041.69902928907</v>
       </c>
       <c r="V3" t="n">
-        <v>694.6168543022394</v>
+        <v>806.5469210573272</v>
       </c>
       <c r="W3" t="n">
-        <v>694.6168543022394</v>
+        <v>552.3095643291256</v>
       </c>
       <c r="X3" t="n">
-        <v>694.6168543022394</v>
+        <v>344.4580641235928</v>
       </c>
       <c r="Y3" t="n">
-        <v>694.6168543022394</v>
+        <v>344.4580641235928</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>787.4880118231679</v>
+        <v>818.757512848276</v>
       </c>
       <c r="C4" t="n">
-        <v>618.551828895261</v>
+        <v>649.8213299203691</v>
       </c>
       <c r="D4" t="n">
-        <v>468.4351894829252</v>
+        <v>499.7046905080333</v>
       </c>
       <c r="E4" t="n">
-        <v>320.5220959005321</v>
+        <v>351.7915969256402</v>
       </c>
       <c r="F4" t="n">
-        <v>173.6321484026218</v>
+        <v>204.9016494277299</v>
       </c>
       <c r="G4" t="n">
-        <v>173.6321484026218</v>
+        <v>36.33176967440284</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7317983794768</v>
+        <v>36.33176967440284</v>
       </c>
       <c r="I4" t="n">
-        <v>36.33176967440285</v>
+        <v>36.33176967440284</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121449</v>
+        <v>21.07062518121452</v>
       </c>
       <c r="K4" t="n">
-        <v>126.32778054812</v>
+        <v>125.498418294074</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504854</v>
+        <v>315.7177729964394</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570827</v>
+        <v>526.6665349030368</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210603</v>
+        <v>738.0340231670145</v>
       </c>
       <c r="O4" t="n">
-        <v>917.249813883633</v>
+        <v>917.2498138836343</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097375</v>
+        <v>1047.079201097377</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060725</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060725</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060725</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.531259060725</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="U4" t="n">
-        <v>1053.531259060725</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="V4" t="n">
-        <v>1053.531259060725</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="W4" t="n">
-        <v>787.4880118231679</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="X4" t="n">
-        <v>787.4880118231679</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="Y4" t="n">
-        <v>787.4880118231679</v>
+        <v>1000.405977678516</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>670.32375641013</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="C5" t="n">
-        <v>670.32375641013</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="D5" t="n">
-        <v>670.32375641013</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="E5" t="n">
-        <v>670.32375641013</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="F5" t="n">
-        <v>403.9460998429521</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4570,19 +4570,19 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4606,13 +4606,13 @@
         <v>900.5447187946889</v>
       </c>
       <c r="W5" t="n">
-        <v>670.32375641013</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="X5" t="n">
-        <v>670.32375641013</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="Y5" t="n">
-        <v>670.32375641013</v>
+        <v>553.8524235344764</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>598.8123849629098</v>
+        <v>344.4845493424988</v>
       </c>
       <c r="C6" t="n">
-        <v>598.8123849629098</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D6" t="n">
-        <v>449.8779753016586</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>449.8779753016586</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4664,34 +4664,34 @@
         <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>808.3837902496282</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>808.3837902496282</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W6" t="n">
-        <v>767.0277219829779</v>
+        <v>928.3116853330534</v>
       </c>
       <c r="X6" t="n">
-        <v>767.0277219829779</v>
+        <v>720.4601851275206</v>
       </c>
       <c r="Y6" t="n">
-        <v>767.0277219829779</v>
+        <v>512.6998863625668</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>205.2577368622518</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434483</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4752,25 +4752,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>653.2838582596694</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>653.2838582596694</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>653.2838582596694</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W7" t="n">
-        <v>386.9062016924914</v>
+        <v>619.9958798540036</v>
       </c>
       <c r="X7" t="n">
-        <v>386.9062016924914</v>
+        <v>392.0063289559863</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.9062016924914</v>
+        <v>171.2137498124562</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1688.365042002428</v>
+        <v>1201.12525314008</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.365042002428</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395677</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974331</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078256</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321143</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321143</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.51718528161</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872947</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923566</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230823</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740848</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721765007</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.831592188879</v>
+        <v>1977.864425180013</v>
       </c>
       <c r="W8" t="n">
-        <v>1897.831592188879</v>
+        <v>1977.864425180013</v>
       </c>
       <c r="X8" t="n">
-        <v>1897.831592188879</v>
+        <v>1977.864425180013</v>
       </c>
       <c r="Y8" t="n">
-        <v>1897.831592188879</v>
+        <v>1587.725093204202</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500118</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310627</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625354</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217569</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1357.685180822782</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.86416460182</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>474.7770143030102</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>305.8408313751033</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>305.8408313751033</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751033</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751033</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751033</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386096</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590084</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590084</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590084</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093922</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>990.059887888035</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>700.6427178510744</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X10" t="n">
-        <v>474.7770143030102</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>474.7770143030102</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5059,22 +5059,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,16 +5129,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2395.078540748843</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>2106.003314093041</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,46 +5281,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5545,19 +5545,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5600,16 +5600,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5752,10 +5752,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1963.123159128057</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1708.43867092217</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1419.02150088521</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1863.561397649904</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1608.876909444017</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="X25" t="n">
-        <v>1430.931364336515</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6223,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>982.1492342949674</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6466,19 +6466,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,7 +6496,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6700,19 +6700,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>557.5558870561822</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2423.619666148774</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2240.764831803678</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2021.163366826619</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1732.088140170817</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1477.40365196493</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1187.986481927969</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>959.9969310299521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>739.2043518864219</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6931,13 +6931,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6946,28 +6946,28 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784064</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504995</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381638</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7134,13 +7134,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7174,10 +7174,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892232</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768874</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>266.4891497944943</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F46" t="n">
-        <v>119.599202296584</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877285</v>
+        <v>60.59164343877276</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.10913542307938</v>
+        <v>2.109135423079323</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96.89877181692401</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.01218599085149</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>25.88658582607298</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>105.9060266941008</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8151,7 +8151,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>162.2039267153299</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,10 +8543,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>14.25823202432144</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039145</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154957</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>166.0397529241849</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>205.614685510496</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>173.4237883572461</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.47507150177353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>115.3527467088734</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>206.7713260796062</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>43.26526345294994</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>126.9182872993607</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>673818.5292624506</v>
+        <v>673818.5292624508</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>679712.0134786952</v>
+        <v>679712.0134786953</v>
       </c>
     </row>
     <row r="5">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>657306.2150872388</v>
+        <v>657306.2150872389</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>657306.2150872387</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>657306.215087239</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710692</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="H2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>766789.2697055056</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="M2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>766789.2697055057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909302</v>
+        <v>679702.4124909306</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680933274</v>
+        <v>366.4703680928882</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059455</v>
+        <v>391128.3638059436</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245439</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,16 +26383,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.533186421</v>
+        <v>68912.53318642113</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774238284</v>
+        <v>85.2055977423763</v>
       </c>
       <c r="L3" t="n">
         <v>95382.64613756971</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674029</v>
+        <v>253116.5477674028</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676992</v>
+        <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26441,16 +26441,16 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
+        <v>12386.92018181809</v>
+      </c>
+      <c r="K4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12386.92018181809</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26459,7 +26459,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557694</v>
+        <v>63021.46164557697</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-215850.7405328411</v>
+        <v>-215850.7405328416</v>
       </c>
       <c r="C6" t="n">
-        <v>463558.6428913744</v>
+        <v>463558.6428913749</v>
       </c>
       <c r="D6" t="n">
-        <v>153176.5878575799</v>
+        <v>153176.5878575818</v>
       </c>
       <c r="E6" t="n">
-        <v>145794.378075237</v>
+        <v>145446.9988208775</v>
       </c>
       <c r="F6" t="n">
-        <v>653279.8196997805</v>
+        <v>652932.4404454238</v>
       </c>
       <c r="G6" t="n">
-        <v>653279.8196997807</v>
+        <v>652932.4404454241</v>
       </c>
       <c r="H6" t="n">
-        <v>653279.8196997809</v>
+        <v>652932.4404454235</v>
       </c>
       <c r="I6" t="n">
-        <v>653279.8196997808</v>
+        <v>652932.4404454237</v>
       </c>
       <c r="J6" t="n">
-        <v>584367.2865133598</v>
+        <v>584019.9072590026</v>
       </c>
       <c r="K6" t="n">
-        <v>653194.6141020381</v>
+        <v>652847.2348476815</v>
       </c>
       <c r="L6" t="n">
-        <v>557897.173562211</v>
+        <v>557549.7943078541</v>
       </c>
       <c r="M6" t="n">
-        <v>520672.5259708537</v>
+        <v>520325.1467164966</v>
       </c>
       <c r="N6" t="n">
-        <v>653279.8196997807</v>
+        <v>652932.4404454236</v>
       </c>
       <c r="O6" t="n">
-        <v>653279.8196997805</v>
+        <v>652932.4404454237</v>
       </c>
       <c r="P6" t="n">
-        <v>653279.8196997805</v>
+        <v>652932.4404454235</v>
       </c>
     </row>
   </sheetData>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960518</v>
+        <v>613.7700232960522</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651811</v>
+        <v>263.3828147651815</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
@@ -26798,10 +26798,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960518</v>
+        <v>613.7700232960522</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734264328</v>
+        <v>0.2849904734260917</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480634</v>
+        <v>320.0098783480611</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241321</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651811</v>
+        <v>263.3828147651815</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363250028</v>
+        <v>0.3310652363246049</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651815</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363247755</v>
+        <v>0.3310652363245481</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985326</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651811</v>
+        <v>263.3828147651815</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363250028</v>
+        <v>0.3310652363246049</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.3510268982994</v>
+        <v>375.2795747538411</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>276.5941792120381</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.4525055708743</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.2053659305182</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739394</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.8551238908721</v>
       </c>
     </row>
     <row r="3">
@@ -27466,10 +27466,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0233325848003</v>
@@ -27478,7 +27478,7 @@
         <v>99.48524054500677</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.94290942807536</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>6.476677152487159</v>
       </c>
       <c r="S3" t="n">
         <v>147.161321588189</v>
       </c>
       <c r="T3" t="n">
-        <v>83.56331014643143</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.625382004468</v>
+        <v>152.3867285273816</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718864</v>
+        <v>127.5277104718863</v>
       </c>
       <c r="S4" t="n">
         <v>204.7281204196193</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>23.14018357140986</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>165.9906247837064</v>
       </c>
     </row>
     <row r="5">
@@ -27636,7 +27636,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>121.3222159566997</v>
+        <v>269.7294764113088</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27706,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27751,19 +27751,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>210.7524755769359</v>
+        <v>126.4165868346782</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>30.37756499426806</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>108.1495979099183</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.3619569788936</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.1673544106567988</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X10" t="n">
-        <v>2.102608876453644</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-5.949952556582801e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29523,13 +29523,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.941503725055547e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -30711,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079603</v>
+        <v>2.467417179079605</v>
       </c>
       <c r="H2" t="n">
-        <v>25.269436185249</v>
+        <v>25.26943618524901</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1251007964665</v>
+        <v>95.12510079646655</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029077</v>
+        <v>209.4189488029078</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933474</v>
+        <v>313.8647179933475</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876048</v>
+        <v>389.3769364876051</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460617</v>
+        <v>433.256866746062</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061217</v>
+        <v>440.267415806122</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316489</v>
+        <v>415.7320362316491</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231211</v>
+        <v>354.8176746231213</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973327</v>
+        <v>266.4532968973328</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753593</v>
+        <v>154.9938943753594</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827652</v>
+        <v>56.22626896827655</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142097</v>
+        <v>10.80111870142098</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263682</v>
+        <v>0.1973933743263683</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.320184578410376</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148968</v>
+        <v>12.75020369148969</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4537234233397</v>
+        <v>45.45372342333972</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435873</v>
+        <v>124.7284912435874</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970825</v>
+        <v>213.1808579970826</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289722</v>
+        <v>286.6479717289723</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963482</v>
+        <v>334.5046626963484</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682319</v>
+        <v>343.3580057682321</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466125</v>
+        <v>314.1054948466127</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439954</v>
+        <v>252.0973516439955</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774367</v>
+        <v>168.5204033774368</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621616</v>
+        <v>81.96724952621621</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564885</v>
+        <v>24.52184951564886</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311995</v>
+        <v>5.321270296311997</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857963001</v>
+        <v>0.08685424857963006</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665011</v>
+        <v>1.106798402665012</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058017</v>
+        <v>9.840443980058023</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923508</v>
+        <v>33.2844465092351</v>
       </c>
       <c r="J4" t="n">
-        <v>78.2506470684163</v>
+        <v>78.25064706841634</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823531</v>
+        <v>128.5898507823532</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653054</v>
+        <v>164.5507370653055</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195708</v>
+        <v>173.4956805195709</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187286</v>
+        <v>169.3703410187287</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148691</v>
+        <v>156.4409233148692</v>
       </c>
       <c r="P4" t="n">
         <v>133.8622359005028</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770382</v>
+        <v>92.67927351770388</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528313</v>
+        <v>49.76568090528316</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735296</v>
+        <v>19.28847761735297</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477775</v>
+        <v>4.729047720477777</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354614</v>
+        <v>0.06037082196354618</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,16 +34219,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622141</v>
+        <v>28.37304427622152</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836682</v>
+        <v>93.77486694836699</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176176</v>
+        <v>153.6105215176178</v>
       </c>
       <c r="M2" t="n">
-        <v>202.910633518789</v>
+        <v>202.9106335187892</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095308</v>
+        <v>210.854352209531</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099621</v>
+        <v>185.6338248099624</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678516</v>
+        <v>123.5846788678517</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288325</v>
+        <v>44.14760702288336</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272346</v>
+        <v>75.3394190227236</v>
       </c>
       <c r="L3" t="n">
-        <v>244.992363766022</v>
+        <v>148.0935919490981</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743299</v>
+        <v>263.3828147651815</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848986</v>
+        <v>212.0162936848988</v>
       </c>
       <c r="O3" t="n">
-        <v>171.509250402168</v>
+        <v>171.5092504021682</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296651</v>
+        <v>118.1229442296653</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141522</v>
+        <v>54.42521511748829</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564702</v>
+        <v>105.4826193059186</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256216</v>
+        <v>192.1407623256217</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814114</v>
+        <v>213.0795574814115</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979572</v>
+        <v>213.5025133979573</v>
       </c>
       <c r="O4" t="n">
-        <v>180.1883115783562</v>
+        <v>181.0260512289089</v>
       </c>
       <c r="P4" t="n">
         <v>131.1407951653963</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009435</v>
+        <v>6.517230266009491</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091791</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434856</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>405.4553316171967</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235333</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667043</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,7 +36214,7 @@
         <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>94.75954470991793</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,16 +37867,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3634336.302216645</v>
+        <v>3636096.83251943</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.454266909639444</v>
+        <v>263.3828147651824</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605545</v>
+        <v>12.83532033605544</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739394</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179688</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.3828147651824</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.3828147651824</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.3828147651815</v>
+        <v>212.2762171674056</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>1.55309613440854</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>11.71390747393977</v>
+        <v>18.19058462642683</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825643</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>195.8340694022844</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.59402856838835</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>263.7138800015061</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>110.096520216718</v>
       </c>
       <c r="W5" t="n">
-        <v>79.51149230610422</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -983,13 +983,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>125.2783963262414</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>97.99706487181477</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>178.3734004266727</v>
+        <v>204.4130175629757</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>318.1437649779768</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.5849040594781</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>51.27659234081855</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172153</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1423,10 +1423,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>26.1362719570587</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>140.5758943588665</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,13 +1615,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>18.70843787977307</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712593</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>112.7606860319981</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576164</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3271,19 +3271,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206843</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>32.44181015857257</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4030,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>41.55695577161151</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.497044223342</v>
+        <v>40.9810959668377</v>
       </c>
       <c r="C2" t="n">
-        <v>157.497044223342</v>
+        <v>40.9810959668377</v>
       </c>
       <c r="D2" t="n">
-        <v>157.497044223342</v>
+        <v>40.9810959668377</v>
       </c>
       <c r="E2" t="n">
-        <v>157.497044223342</v>
+        <v>40.9810959668377</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5515434741386</v>
+        <v>34.03559521763423</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5865734377189</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5865734377189</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121452</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467368</v>
+        <v>49.15993901467414</v>
       </c>
       <c r="K2" t="n">
-        <v>141.997057293557</v>
+        <v>141.9970572935579</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959987</v>
+        <v>294.0714735959997</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007796</v>
+        <v>494.9530007796016</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670356</v>
+        <v>703.6988094670378</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288986</v>
+        <v>887.4762960289011</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108072</v>
+        <v>1009.825128108075</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060726</v>
+        <v>1053.53125906073</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060726</v>
+        <v>1053.53125906073</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193435</v>
+        <v>1053.53125906073</v>
       </c>
       <c r="T2" t="n">
-        <v>684.7549646357977</v>
+        <v>1053.53125906073</v>
       </c>
       <c r="U2" t="n">
-        <v>431.0698539958885</v>
+        <v>1053.53125906073</v>
       </c>
       <c r="V2" t="n">
-        <v>431.0698539958885</v>
+        <v>787.4880118231715</v>
       </c>
       <c r="W2" t="n">
-        <v>431.0698539958885</v>
+        <v>521.4447645856135</v>
       </c>
       <c r="X2" t="n">
-        <v>431.0698539958885</v>
+        <v>521.4447645856135</v>
       </c>
       <c r="Y2" t="n">
-        <v>165.0266067583314</v>
+        <v>307.0243432043957</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>344.4580641235928</v>
+        <v>197.0924384364916</v>
       </c>
       <c r="C3" t="n">
-        <v>170.0050348424658</v>
+        <v>22.63940915536463</v>
       </c>
       <c r="D3" t="n">
-        <v>21.07062518121452</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="E3" t="n">
-        <v>21.07062518121452</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="F3" t="n">
-        <v>21.07062518121452</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="G3" t="n">
-        <v>21.07062518121452</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121452</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121452</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121452</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371089</v>
+        <v>191.5864341124675</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433181</v>
+        <v>338.199090142075</v>
       </c>
       <c r="M3" t="n">
-        <v>503.0182926608478</v>
+        <v>528.6460126286622</v>
       </c>
       <c r="N3" t="n">
-        <v>712.9144234088976</v>
+        <v>738.5421433767124</v>
       </c>
       <c r="O3" t="n">
-        <v>882.7085813070441</v>
+        <v>908.3363012748594</v>
       </c>
       <c r="P3" t="n">
-        <v>999.6502960944127</v>
+        <v>1025.278016062228</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060726</v>
+        <v>1053.53125906073</v>
       </c>
       <c r="R3" t="n">
-        <v>1041.69902928907</v>
+        <v>1035.156931155248</v>
       </c>
       <c r="S3" t="n">
-        <v>1041.69902928907</v>
+        <v>1035.156931155248</v>
       </c>
       <c r="T3" t="n">
-        <v>1041.69902928907</v>
+        <v>1035.156931155248</v>
       </c>
       <c r="U3" t="n">
-        <v>1041.69902928907</v>
+        <v>1035.156931155248</v>
       </c>
       <c r="V3" t="n">
-        <v>806.5469210573272</v>
+        <v>1035.156931155248</v>
       </c>
       <c r="W3" t="n">
-        <v>552.3095643291256</v>
+        <v>780.9195744270464</v>
       </c>
       <c r="X3" t="n">
-        <v>344.4580641235928</v>
+        <v>573.0680742215136</v>
       </c>
       <c r="Y3" t="n">
-        <v>344.4580641235928</v>
+        <v>365.3077754565597</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>818.757512848276</v>
+        <v>634.9264886017606</v>
       </c>
       <c r="C4" t="n">
-        <v>649.8213299203691</v>
+        <v>465.9903056738538</v>
       </c>
       <c r="D4" t="n">
-        <v>499.7046905080333</v>
+        <v>315.8736662615181</v>
       </c>
       <c r="E4" t="n">
-        <v>351.7915969256402</v>
+        <v>167.9605726791249</v>
       </c>
       <c r="F4" t="n">
-        <v>204.9016494277299</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="G4" t="n">
-        <v>36.33176967440284</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="H4" t="n">
-        <v>36.33176967440284</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="I4" t="n">
-        <v>36.33176967440284</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121452</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="K4" t="n">
-        <v>125.498418294074</v>
+        <v>126.3277805481204</v>
       </c>
       <c r="L4" t="n">
-        <v>315.7177729964394</v>
+        <v>316.5471352504861</v>
       </c>
       <c r="M4" t="n">
-        <v>526.6665349030368</v>
+        <v>527.4958971570836</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670145</v>
+        <v>738.8633854210616</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836343</v>
+        <v>918.0791761376815</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097377</v>
+        <v>1047.908563351424</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060726</v>
+        <v>1053.53125906073</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060726</v>
+        <v>1053.53125906073</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060726</v>
+        <v>1053.53125906073</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.531259060726</v>
+        <v>1053.53125906073</v>
       </c>
       <c r="U4" t="n">
-        <v>1053.531259060726</v>
+        <v>855.7190677452908</v>
       </c>
       <c r="V4" t="n">
-        <v>1053.531259060726</v>
+        <v>855.7190677452908</v>
       </c>
       <c r="W4" t="n">
-        <v>1053.531259060726</v>
+        <v>855.7190677452908</v>
       </c>
       <c r="X4" t="n">
-        <v>1053.531259060726</v>
+        <v>855.7190677452908</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000.405977678516</v>
+        <v>634.9264886017606</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>553.8524235344764</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="C5" t="n">
-        <v>553.8524235344764</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="D5" t="n">
-        <v>553.8524235344764</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="E5" t="n">
-        <v>553.8524235344764</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672984</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4588,31 +4588,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946889</v>
+        <v>943.6469137265112</v>
       </c>
       <c r="W5" t="n">
-        <v>820.2300801016544</v>
+        <v>677.2692571593334</v>
       </c>
       <c r="X5" t="n">
-        <v>553.8524235344764</v>
+        <v>677.2692571593334</v>
       </c>
       <c r="Y5" t="n">
-        <v>553.8524235344764</v>
+        <v>410.8916005921556</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344.4845493424988</v>
+        <v>787.653248772002</v>
       </c>
       <c r="C6" t="n">
-        <v>170.0315200613718</v>
+        <v>613.200219490875</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G6" t="n">
         <v>21.09711040012049</v>
@@ -4649,49 +4649,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957456</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263948</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110289997</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557294</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W6" t="n">
-        <v>928.3116853330534</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="X6" t="n">
-        <v>720.4601851275206</v>
+        <v>955.86858579207</v>
       </c>
       <c r="Y6" t="n">
-        <v>512.6998863625668</v>
+        <v>955.86858579207</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>171.2137498124562</v>
+        <v>205.2577368622518</v>
       </c>
       <c r="C7" t="n">
-        <v>171.2137498124562</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227043</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165356</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165356</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165356</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001377</v>
+        <v>593.3839972106488</v>
       </c>
       <c r="W7" t="n">
-        <v>619.9958798540036</v>
+        <v>386.9062016924914</v>
       </c>
       <c r="X7" t="n">
-        <v>392.0063289559863</v>
+        <v>386.9062016924914</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.2137498124562</v>
+        <v>386.9062016924914</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1201.12525314008</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="C8" t="n">
-        <v>832.1627361996682</v>
+        <v>749.4796705208569</v>
       </c>
       <c r="D8" t="n">
-        <v>473.8970375929177</v>
+        <v>391.2139719141064</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
         <v>62.91113280331017</v>
@@ -4804,16 +4804,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4837,19 +4837,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.864425180013</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>1977.864425180013</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>1977.864425180013</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y8" t="n">
-        <v>1587.725093204202</v>
+        <v>1505.04202752539</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4886,25 +4886,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143493</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>884.908532145821</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701986</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2362.930966067699</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
         <v>51.2467865680031</v>
@@ -4962,25 +4962,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.651582356498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.651582356498</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5032,34 +5032,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098242</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819173</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695815</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>516.3896878871884</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>369.499740389278</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>202.303641104158</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5226,25 +5226,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640064</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>194.8007783998291</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,7 +5548,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1863.561397649904</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1608.876909444017</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1319.459739407057</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6226,28 +6226,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6457,46 +6457,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6682,25 +6682,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075811</v>
@@ -6715,34 +6715,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6837,52 +6837,52 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
         <v>2254.869721166297</v>
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,49 +7162,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>984.5467179762953</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>815.6105350483884</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>665.4938956360527</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>517.5808020536596</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1166.195182806535</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7669,31 +7669,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>444.7013164925216</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>444.7013164925216</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>277.5052172074016</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>135.7933860495997</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877276</v>
+        <v>60.59164343877256</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079323</v>
+        <v>2.109135423079152</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>96.89877181692557</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.01218599085149</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>25.88658582607298</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>105.9060266941008</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>64.50521872720185</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127281</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780638</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>84.9418658837474</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>114.1584408891651</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>145.6085800303777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>121.5862749664508</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038532</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>173.4237883572461</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.5257599066253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>112.9792378643587</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>39.70888054695403</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>679712.0134786953</v>
+        <v>679712.0134786954</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>657306.2150872388</v>
+        <v>657306.2150872389</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710695</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
         <v>766789.2697055057</v>
@@ -26337,25 +26337,25 @@
         <v>766789.2697055057</v>
       </c>
       <c r="J2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="K2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="O2" t="n">
-        <v>766789.2697055058</v>
-      </c>
       <c r="P2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.269705506</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909306</v>
+        <v>679702.4124909318</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680928882</v>
+        <v>366.4703680916627</v>
       </c>
       <c r="D3" t="n">
         <v>391128.3638059436</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642113</v>
+        <v>68912.53318642156</v>
       </c>
       <c r="K3" t="n">
-        <v>85.2055977423763</v>
+        <v>85.20559774219163</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756971</v>
+        <v>95382.64613756973</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674028</v>
+        <v>253116.5477674025</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
@@ -26441,16 +26441,16 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
+        <v>12386.92018181813</v>
+      </c>
+      <c r="K4" t="n">
         <v>12386.92018181809</v>
       </c>
-      <c r="K4" t="n">
-        <v>12386.92018181813</v>
-      </c>
       <c r="L4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181805</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26459,7 +26459,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557697</v>
+        <v>63021.46164557704</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-215850.7405328416</v>
+        <v>-215850.7405328422</v>
       </c>
       <c r="C6" t="n">
-        <v>463558.6428913749</v>
+        <v>463558.6428913762</v>
       </c>
       <c r="D6" t="n">
         <v>153176.5878575818</v>
       </c>
       <c r="E6" t="n">
-        <v>145446.9988208775</v>
+        <v>145759.6401497987</v>
       </c>
       <c r="F6" t="n">
-        <v>652932.4404454238</v>
+        <v>653245.081774345</v>
       </c>
       <c r="G6" t="n">
-        <v>652932.4404454241</v>
+        <v>653245.081774345</v>
       </c>
       <c r="H6" t="n">
-        <v>652932.4404454235</v>
+        <v>653245.0817743448</v>
       </c>
       <c r="I6" t="n">
-        <v>652932.4404454237</v>
+        <v>653245.081774345</v>
       </c>
       <c r="J6" t="n">
-        <v>584019.9072590026</v>
+        <v>584332.5485879235</v>
       </c>
       <c r="K6" t="n">
-        <v>652847.2348476815</v>
+        <v>653159.8761766029</v>
       </c>
       <c r="L6" t="n">
-        <v>557549.7943078541</v>
+        <v>557862.4356367756</v>
       </c>
       <c r="M6" t="n">
-        <v>520325.1467164966</v>
+        <v>520637.7880454182</v>
       </c>
       <c r="N6" t="n">
-        <v>652932.4404454236</v>
+        <v>653245.0817743449</v>
       </c>
       <c r="O6" t="n">
-        <v>652932.4404454237</v>
+        <v>653245.0817743449</v>
       </c>
       <c r="P6" t="n">
-        <v>652932.4404454235</v>
+        <v>653245.0817743452</v>
       </c>
     </row>
   </sheetData>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960522</v>
+        <v>613.770023296053</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651815</v>
+        <v>263.3828147651824</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
@@ -26801,7 +26801,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26816,16 +26816,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26931,19 +26931,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-2.966615459035109e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>-3.469431638532584e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960522</v>
+        <v>613.770023296053</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734260917</v>
+        <v>0.2849904734250686</v>
       </c>
       <c r="D3" t="n">
         <v>320.0098783480611</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26983,7 +26983,7 @@
         <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651815</v>
+        <v>263.3828147651824</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363246049</v>
+        <v>0.3310652363236954</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996099</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651815</v>
+        <v>263.3828147651824</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363245481</v>
+        <v>0.3310652363239228</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996099</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651815</v>
+        <v>263.3828147651824</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363246049</v>
+        <v>0.3310652363236954</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996099</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375.2795747538411</v>
+        <v>119.3510268982982</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305182</v>
+        <v>314.2053659305181</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739392</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179687</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.36944370495252</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.85815395223062</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.8551238908721</v>
+        <v>173.961721488648</v>
       </c>
     </row>
     <row r="3">
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>145.8919694302302</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>136.0233325848002</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500677</v>
+        <v>99.48524054500676</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807536</v>
+        <v>43.9429094280753</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>6.476677152487159</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>147.1613215881889</v>
       </c>
       <c r="T3" t="n">
         <v>194.8434583985096</v>
@@ -27517,7 +27517,7 @@
         <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273816</v>
+        <v>152.3867285273815</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180232</v>
+        <v>122.1660284180231</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.10853304825633</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>127.5277104718863</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>204.7281204196192</v>
       </c>
       <c r="T4" t="n">
         <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586585345273</v>
+        <v>90.42458913224297</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.9906247837064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>149.1202946442039</v>
@@ -27636,7 +27636,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>217.6557382534169</v>
       </c>
       <c r="W5" t="n">
-        <v>269.7294764113088</v>
+        <v>85.52708871590693</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545475</v>
       </c>
     </row>
     <row r="6">
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>126.4165868346782</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>107.7759203316627</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>108.1495979099183</v>
+        <v>82.10998077361526</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>63.78660509428499</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1673544106567988</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28061,19 +28061,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>143.3858680209189</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193757</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-5.949952556582801e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -30711,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079605</v>
+        <v>2.467417179079608</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524901</v>
+        <v>25.26943618524904</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646655</v>
+        <v>95.12510079646668</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029078</v>
+        <v>209.4189488029081</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933475</v>
+        <v>313.8647179933479</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876051</v>
+        <v>389.3769364876056</v>
       </c>
       <c r="M2" t="n">
-        <v>433.256866746062</v>
+        <v>433.2568667460625</v>
       </c>
       <c r="N2" t="n">
-        <v>440.267415806122</v>
+        <v>440.2674158061225</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316491</v>
+        <v>415.7320362316496</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231213</v>
+        <v>354.8176746231218</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973328</v>
+        <v>266.4532968973332</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753594</v>
+        <v>154.9938943753596</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827655</v>
+        <v>56.22626896827662</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142098</v>
+        <v>10.80111870142099</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263683</v>
+        <v>0.1973933743263686</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410376</v>
+        <v>1.320184578410378</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148969</v>
+        <v>12.75020369148971</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333972</v>
+        <v>45.45372342333978</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435874</v>
+        <v>124.7284912435875</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970826</v>
+        <v>213.1808579970829</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289723</v>
+        <v>286.6479717289727</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963484</v>
+        <v>334.5046626963488</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682321</v>
+        <v>343.3580057682325</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466127</v>
+        <v>314.1054948466131</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439955</v>
+        <v>252.0973516439958</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774368</v>
+        <v>168.520403377437</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621621</v>
+        <v>81.96724952621631</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564886</v>
+        <v>24.52184951564889</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311997</v>
+        <v>5.321270296312004</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857963006</v>
+        <v>0.08685424857963017</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665012</v>
+        <v>1.106798402665013</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058023</v>
+        <v>9.840443980058035</v>
       </c>
       <c r="I4" t="n">
-        <v>33.2844465092351</v>
+        <v>33.28444650923514</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841634</v>
+        <v>78.25064706841644</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823532</v>
+        <v>128.5898507823534</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653055</v>
+        <v>164.5507370653058</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195709</v>
+        <v>173.4956805195711</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187287</v>
+        <v>169.3703410187289</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148692</v>
+        <v>156.4409233148694</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005028</v>
+        <v>133.862235900503</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770388</v>
+        <v>92.67927351770399</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528316</v>
+        <v>49.76568090528323</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735297</v>
+        <v>19.288477617353</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477777</v>
+        <v>4.729047720477784</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354618</v>
+        <v>0.06037082196354625</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,13 +31852,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904295</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622152</v>
+        <v>28.37304427622178</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836699</v>
+        <v>93.77486694836739</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176178</v>
+        <v>153.6105215176183</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187892</v>
+        <v>202.9106335187898</v>
       </c>
       <c r="N2" t="n">
-        <v>210.854352209531</v>
+        <v>210.8543522095316</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099624</v>
+        <v>185.6338248099629</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678517</v>
+        <v>123.5846788678522</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288336</v>
+        <v>44.1476070228837</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.3394190227236</v>
+        <v>172.2381908396494</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490981</v>
+        <v>148.0935919490985</v>
       </c>
       <c r="M3" t="n">
-        <v>263.3828147651815</v>
+        <v>192.3706287743305</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848988</v>
+        <v>212.0162936848992</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021682</v>
+        <v>171.5092504021686</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296653</v>
+        <v>118.1229442296656</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.42521511748829</v>
+        <v>28.53862929141553</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>105.4826193059186</v>
+        <v>106.3203589564705</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256217</v>
+        <v>192.1407623256219</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814115</v>
+        <v>213.0795574814117</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979573</v>
+        <v>213.5025133979575</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289089</v>
+        <v>181.0260512289091</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653963</v>
+        <v>131.1407951653965</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009491</v>
+        <v>5.67949061545999</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250137</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215487</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>201.4225882146019</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,13 +35500,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684112</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
